--- a/data/out/wiki/tb_eu_uefa_men.xlsx
+++ b/data/out/wiki/tb_eu_uefa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -486,7 +486,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -507,7 +507,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -516,28 +516,28 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Czechoslovakia</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -546,28 +546,28 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yugoslavia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -597,7 +597,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -606,28 +606,28 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -636,28 +636,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -666,11 +666,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>West Germany</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -682,12 +682,12 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -717,7 +717,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>West Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -747,7 +747,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -756,28 +756,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -786,28 +786,28 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -837,7 +837,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Soviet Union</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -856,18 +856,18 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -897,7 +897,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -906,14 +906,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -922,12 +922,12 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -957,7 +957,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -987,7 +987,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -996,28 +996,28 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1026,58 +1026,58 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Soviet Union</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1107,7 +1107,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1116,20 +1116,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>2</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1146,32 +1146,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1197,23 +1197,23 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1227,76 +1227,76 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1306,87 +1306,87 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>CIS</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1396,13 +1396,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1441,28 +1441,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1471,28 +1471,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1519,10 +1519,10 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1531,12 +1531,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1546,13 +1546,13 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1561,28 +1561,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1591,28 +1591,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -1621,12 +1621,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1647,16 +1647,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1677,16 +1677,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1696,34 +1696,34 @@
         <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>2</v>
@@ -1732,21 +1732,21 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1759,31 +1759,31 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -1792,31 +1792,31 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1827,23 +1827,23 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -1852,21 +1852,21 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1891,28 +1891,28 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1921,28 +1921,28 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -1951,19 +1951,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
         <v>2</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1996,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2011,19 +2011,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2041,28 +2041,28 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2071,19 +2071,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2116,34 +2116,34 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D57" t="n">
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
@@ -2152,21 +2152,21 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>FR Yugoslavia</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2187,26 +2187,26 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2217,16 +2217,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2247,20 +2247,20 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
@@ -2272,81 +2272,81 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2371,28 +2371,28 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2401,19 +2401,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -2431,25 +2431,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>3</v>
@@ -2461,12 +2461,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2491,19 +2491,19 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -2521,19 +2521,19 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -2551,12 +2551,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2566,13 +2566,13 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2607,23 +2607,23 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2632,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2716,27 +2716,27 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2757,16 +2757,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2776,57 +2776,57 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2836,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2881,12 +2881,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2911,12 +2911,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -3016,13 +3016,13 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3031,28 +3031,28 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -3061,12 +3061,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -3076,34 +3076,34 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D89" t="n">
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -3112,31 +3112,31 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -3147,29 +3147,29 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>2</v>
@@ -3177,16 +3177,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -3196,27 +3196,27 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -3237,92 +3237,92 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3331,19 +3331,19 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D97" t="n">
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -3361,22 +3361,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -3391,25 +3391,25 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>2</v>
@@ -3421,12 +3421,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -3451,19 +3451,19 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D101" t="n">
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3481,28 +3481,28 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
@@ -3511,28 +3511,28 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
@@ -3541,42 +3541,42 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -3597,16 +3597,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -3616,40 +3616,40 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
         <v>2</v>
@@ -3657,16 +3657,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -3676,27 +3676,27 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -3717,16 +3717,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -3747,16 +3747,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -3777,16 +3777,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -3841,12 +3841,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -3871,12 +3871,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Northern Ireland</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -3889,10 +3889,10 @@
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -3901,12 +3901,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -3916,13 +3916,13 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -3931,22 +3931,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="D117" t="n">
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -3961,12 +3961,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D119" t="n">
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
         <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
         <v>2</v>
@@ -4021,12 +4021,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -4051,12 +4051,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -4081,12 +4081,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -4096,13 +4096,13 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -4111,25 +4111,25 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Northern Ireland</t>
         </is>
       </c>
       <c r="D123" t="n">
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
         <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
         <v>2</v>
@@ -4141,12 +4141,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -4156,13 +4156,13 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -4171,19 +4171,19 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D125" t="n">
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -4201,16 +4201,16 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
         <v>1</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -4231,12 +4231,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -4249,10 +4249,10 @@
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -4276,22 +4276,22 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4317,16 +4317,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -4347,16 +4347,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -4369,24 +4369,24 @@
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -4396,27 +4396,27 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -4437,16 +4437,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -4456,57 +4456,57 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D135" t="n">
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -4516,13 +4516,13 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -4531,12 +4531,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -4576,13 +4576,13 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -4591,19 +4591,19 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D139" t="n">
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
         <v>1</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -4651,19 +4651,19 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D141" t="n">
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -4681,12 +4681,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -4711,16 +4711,16 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
         <v>1</v>
@@ -4729,7 +4729,7 @@
         <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>3</v>
@@ -4741,12 +4741,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -4756,13 +4756,13 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
@@ -4771,19 +4771,19 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -4801,19 +4801,19 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
         <v>1</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -4861,12 +4861,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -4891,28 +4891,28 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -4921,28 +4921,28 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -4951,28 +4951,28 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -4981,12 +4981,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -4996,27 +4996,27 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -5037,16 +5037,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -5056,40 +5056,40 @@
         <v>2</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D155" t="n">
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
         <v>2</v>
@@ -5097,16 +5097,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -5116,34 +5116,34 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -5152,81 +5152,81 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E158" t="n">
         <v>2</v>
       </c>
       <c r="F158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D159" t="n">
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -5236,13 +5236,13 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161">
@@ -5251,19 +5251,19 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
@@ -5281,22 +5281,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
         <v>2</v>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -5311,28 +5311,28 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D163" t="n">
         <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -5341,12 +5341,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -5356,13 +5356,13 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -5371,28 +5371,28 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -5401,16 +5401,16 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
         <v>2</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
@@ -5431,28 +5431,28 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -5476,13 +5476,13 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -5491,12 +5491,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -5521,12 +5521,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -5536,13 +5536,13 @@
         <v>2</v>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171">
@@ -5551,19 +5551,19 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D171" t="n">
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F171" t="n">
         <v>2</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172">
@@ -5581,12 +5581,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -5611,28 +5611,28 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174">
@@ -5641,19 +5641,19 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175">
@@ -5671,28 +5671,28 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176">
@@ -5701,27 +5701,267 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>2</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1</v>
+      </c>
+      <c r="H177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1</v>
+      </c>
+      <c r="H179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
           <t>Group F</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>1</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="D176" t="n">
-        <v>0</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1</v>
-      </c>
-      <c r="G176" t="n">
-        <v>1</v>
-      </c>
-      <c r="H176" t="n">
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1</v>
+      </c>
+      <c r="H184" t="n">
         <v>2</v>
       </c>
     </row>
